--- a/DataInfo/LstIP.xlsx
+++ b/DataInfo/LstIP.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>203.162.4.1</t>
   </si>
@@ -40,6 +40,141 @@
   </si>
   <si>
     <t>lookingglass.pccwglobal.com</t>
+  </si>
+  <si>
+    <t>103.206.80.9</t>
+  </si>
+  <si>
+    <t>103.206.81.1</t>
+  </si>
+  <si>
+    <t>103.91.140.1</t>
+  </si>
+  <si>
+    <t>103.91.143.1</t>
+  </si>
+  <si>
+    <t>111.84.49.2</t>
+  </si>
+  <si>
+    <t>112.205.128.1</t>
+  </si>
+  <si>
+    <t>112.215.88.5</t>
+  </si>
+  <si>
+    <t>112.215.88.6</t>
+  </si>
+  <si>
+    <t>114.125.0.1</t>
+  </si>
+  <si>
+    <t>114.125.1.1</t>
+  </si>
+  <si>
+    <t>114.4.46.1</t>
+  </si>
+  <si>
+    <t>114.4.48.1</t>
+  </si>
+  <si>
+    <t>118.175.224.1</t>
+  </si>
+  <si>
+    <t>118.175.225.1</t>
+  </si>
+  <si>
+    <t>121.96.0.1</t>
+  </si>
+  <si>
+    <t>121.96.4.1</t>
+  </si>
+  <si>
+    <t>14.187.128.1</t>
+  </si>
+  <si>
+    <t>14.187.133.1</t>
+  </si>
+  <si>
+    <t>158.140.160.1</t>
+  </si>
+  <si>
+    <t>158.140.161.1</t>
+  </si>
+  <si>
+    <t>202.91.18.233</t>
+  </si>
+  <si>
+    <t>203.113.131.2</t>
+  </si>
+  <si>
+    <t>203.113.188.1</t>
+  </si>
+  <si>
+    <t>203.162.4.190</t>
+  </si>
+  <si>
+    <t>203.177.125.1</t>
+  </si>
+  <si>
+    <t>203.177.128.1</t>
+  </si>
+  <si>
+    <t>210.245.10.1</t>
+  </si>
+  <si>
+    <t>210.245.14.4</t>
+  </si>
+  <si>
+    <t>27.68.104.1</t>
+  </si>
+  <si>
+    <t>27.68.105.1</t>
+  </si>
+  <si>
+    <t>42.115.212.1</t>
+  </si>
+  <si>
+    <t>42.115.216.254</t>
+  </si>
+  <si>
+    <t>43.224.189.1</t>
+  </si>
+  <si>
+    <t>43.224.190.1</t>
+  </si>
+  <si>
+    <t>43.225.184.1</t>
+  </si>
+  <si>
+    <t>43.225.185.17</t>
+  </si>
+  <si>
+    <t>49.146.96.1</t>
+  </si>
+  <si>
+    <t>49.231.56.1</t>
+  </si>
+  <si>
+    <t>49.231.58.1</t>
+  </si>
+  <si>
+    <t>49.49.0.1</t>
+  </si>
+  <si>
+    <t>49.49.1.1</t>
+  </si>
+  <si>
+    <t>61.7.145.2</t>
+  </si>
+  <si>
+    <t>61.7.146.2</t>
+  </si>
+  <si>
+    <t>61.90.231.1</t>
+  </si>
+  <si>
+    <t>61.91.1.1</t>
   </si>
 </sst>
 </file>
@@ -384,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,7 +549,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -422,7 +557,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -430,11 +565,236 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
